--- a/Laboratories/QuickSort/report/dataNgraphs.xlsx
+++ b/Laboratories/QuickSort/report/dataNgraphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mid" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,10 +53,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0E+0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +81,16 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -203,7 +214,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -398,11 +409,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="20821490"/>
-        <c:axId val="90583908"/>
+        <c:axId val="81463140"/>
+        <c:axId val="21838283"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20821490"/>
+        <c:axId val="81463140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,11 +429,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90583908"/>
+        <c:crossAx val="21838283"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90583908"/>
+        <c:axId val="21838283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +458,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20821490"/>
+        <c:crossAx val="81463140"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -482,7 +493,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -510,340 +521,160 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$33:$A$84</c:f>
+              <c:f>mid!$A$30:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52000</c:v>
+                  <c:v>22000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$33:$B$84</c:f>
+              <c:f>mid!$B$30:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.5</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>251.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.5</c:v>
+                  <c:v>313.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.5</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>444.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>450.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.5</c:v>
+                  <c:v>493.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>136.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>146.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>157.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>168.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>228.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>241.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>256.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>277.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>328.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>360.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>503.5</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="25601985"/>
-        <c:axId val="32757813"/>
+        <c:axId val="20278916"/>
+        <c:axId val="28886553"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25601985"/>
+        <c:axId val="20278916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,11 +690,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32757813"/>
+        <c:crossAx val="28886553"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32757813"/>
+        <c:axId val="28886553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +719,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25601985"/>
+        <c:crossAx val="20278916"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -923,10 +754,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: Middle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -935,6 +786,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -951,279 +813,546 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$92:$A$132</c:f>
+              <c:f>mid!$A$56:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$92:$B$132</c:f>
+              <c:f>mid!$B$56:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>156.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>171.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>216.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>464.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>513</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="19967208"/>
-        <c:axId val="70789533"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mid!$A$30:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mid!$B$30:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>444.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>493.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mid!$A$1:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mid!$B$1:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>306.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>383.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>455.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="67705503"/>
+        <c:axId val="72676943"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19967208"/>
+        <c:axId val="67705503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1234,11 +1363,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70789533"/>
+        <c:crossAx val="72676943"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70789533"/>
+        <c:axId val="72676943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,6 +1382,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>t [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1263,7 +1412,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19967208"/>
+        <c:crossAx val="67705503"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1298,7 +1447,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1326,622 +1475,136 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$33:$A$84</c:f>
+              <c:f>mid!$A$56:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$33:$B$84</c:f>
+              <c:f>mid!$B$56:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>156.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.5</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.5</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>136.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>146.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>157.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>168.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>228.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>241.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>256.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>277.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>328.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>360.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>503.5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>last!$A$92:$A$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>last!$B$92:$B$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>99.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>171.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>216.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>464.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>513</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="6115063"/>
-        <c:axId val="41408667"/>
+        <c:axId val="30727835"/>
+        <c:axId val="96439644"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6115063"/>
+        <c:axId val="30727835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,11 +1620,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41408667"/>
+        <c:crossAx val="96439644"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41408667"/>
+        <c:axId val="96439644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +1649,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6115063"/>
+        <c:crossAx val="30727835"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2021,10 +1684,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: First element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2033,6 +1716,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2049,10 +1743,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$30:$A$51</c:f>
+              <c:f>first!$A$1:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
                 </c:pt>
@@ -2118,96 +1812,149 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$30:$B$51</c:f>
+              <c:f>first!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.5</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>245.5</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.5</c:v>
+                  <c:v>205.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>269</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>313.5</c:v>
+                  <c:v>275.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>338</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>358</c:v>
+                  <c:v>294.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>427</c:v>
+                  <c:v>352.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>444.5</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>450.5</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>468</c:v>
+                  <c:v>397.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>493.5</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>520</c:v>
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="23034863"/>
-        <c:axId val="32351542"/>
+        <c:axId val="30744217"/>
+        <c:axId val="81443223"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23034863"/>
+        <c:axId val="30744217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2218,11 +1965,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32351542"/>
+        <c:crossAx val="81443223"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32351542"/>
+        <c:axId val="81443223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,6 +1984,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2247,7 +2014,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23034863"/>
+        <c:crossAx val="30744217"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2282,7 +2049,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2310,490 +2077,262 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$56:$A$73</c:f>
+              <c:f>first!$A$33:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$56:$B$73</c:f>
+              <c:f>first!$B$33:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>33.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>98.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>128.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>354.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>479</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>514</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>265.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>284.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mid!$A$30:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mid!$B$30:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>147.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>245.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>251.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>444.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>450.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>493.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mid!$A$1:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mid!$B$1:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>183.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>253.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>269.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>291.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>306.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>383.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>455.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>480.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="18556537"/>
-        <c:axId val="93370162"/>
+        <c:axId val="47619357"/>
+        <c:axId val="83203678"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18556537"/>
+        <c:axId val="47619357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,11 +2348,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93370162"/>
+        <c:crossAx val="83203678"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93370162"/>
+        <c:axId val="83203678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +2377,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18556537"/>
+        <c:crossAx val="47619357"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2873,7 +2412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2901,136 +2440,274 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$56:$A$73</c:f>
+              <c:f>first!$A$76:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$56:$B$73</c:f>
+              <c:f>first!$B$76:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>33.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>296</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>328</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>354.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>379</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>404</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>451</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>479</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>514</c:v>
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>331.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>441.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87030519"/>
-        <c:axId val="2157049"/>
+        <c:axId val="42827607"/>
+        <c:axId val="90233764"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87030519"/>
+        <c:axId val="42827607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,11 +2723,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2157049"/>
+        <c:crossAx val="90233764"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2157049"/>
+        <c:axId val="90233764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +2752,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87030519"/>
+        <c:crossAx val="42827607"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3110,10 +2787,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: First element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3122,6 +2819,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -3138,189 +2846,589 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$1:$A$26</c:f>
+              <c:f>first!$A$33:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000000</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000000</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000000</c:v>
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$1:$B$26</c:f>
+              <c:f>first!$B$33:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>275.5</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>282</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>294.5</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>352.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>364</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>385.5</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>397.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>428</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>440</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>459</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>474</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>492</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>527</c:v>
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>265.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>284.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81392414"/>
-        <c:axId val="77626246"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>first!$A$76:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>first!$B$76:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>331.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>441.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="8142147"/>
+        <c:axId val="31266662"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81392414"/>
+        <c:axId val="8142147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3331,11 +3439,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77626246"/>
+        <c:crossAx val="31266662"/>
         <c:crossesAt val="0"/>
+        <c:majorUnit val="10000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77626246"/>
+        <c:axId val="31266662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,6 +3459,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3360,7 +3489,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81392414"/>
+        <c:crossAx val="8142147"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3395,10 +3524,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: Last element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3407,6 +3556,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -3423,267 +3583,218 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$33:$A$71</c:f>
+              <c:f>last!$A$1:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
+                  <c:v>22000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000</c:v>
+                  <c:v>23000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000</c:v>
+                  <c:v>24000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
+                  <c:v>26000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$33:$B$71</c:f>
+              <c:f>last!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.5</c:v>
+                  <c:v>106.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.5</c:v>
+                  <c:v>228.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.5</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67</c:v>
+                  <c:v>266.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.5</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88</c:v>
+                  <c:v>298.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.5</c:v>
+                  <c:v>362.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>379.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.5</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135</c:v>
+                  <c:v>408.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>163.5</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>179.5</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194.5</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>265.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>284.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>346.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>388.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>519</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63812663"/>
-        <c:axId val="65631248"/>
+        <c:axId val="65968971"/>
+        <c:axId val="79522556"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63812663"/>
+        <c:axId val="65968971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3694,11 +3805,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="65631248"/>
+        <c:crossAx val="79522556"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65631248"/>
+        <c:axId val="79522556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,6 +3824,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3723,7 +3854,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63812663"/>
+        <c:crossAx val="65968971"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3758,7 +3889,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3786,10 +3917,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$76:$A$116</c:f>
+              <c:f>last!$A$33:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3912,148 +4043,214 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$76:$B$116</c:f>
+              <c:f>last!$B$33:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>121.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>134</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>176</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189.5</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221</c:v>
+                  <c:v>136.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>237</c:v>
+                  <c:v>146.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>257</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>275</c:v>
+                  <c:v>168.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>293</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>311.5</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>331.5</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>350.5</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>371</c:v>
+                  <c:v>228.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394</c:v>
+                  <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>415</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>441.5</c:v>
+                  <c:v>277.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>461</c:v>
+                  <c:v>282.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>485</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>508</c:v>
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>360.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>503.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74821005"/>
-        <c:axId val="53311804"/>
+        <c:axId val="51374819"/>
+        <c:axId val="90601787"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74821005"/>
+        <c:axId val="51374819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,11 +4266,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53311804"/>
+        <c:crossAx val="90601787"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53311804"/>
+        <c:axId val="90601787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +4295,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74821005"/>
+        <c:crossAx val="51374819"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4133,7 +4330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4161,10 +4358,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$33:$A$71</c:f>
+              <c:f>last!$A$92:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4281,289 +4478,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$33:$B$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>179.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>194.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>265.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>284.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>346.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>388.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>first!$A$76:$A$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>first!$B$76:$B$116</c:f>
+              <c:f>last!$B$92:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4571,31 +4498,31 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>37</c:v>
@@ -4604,101 +4531,101 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>121.5</c:v>
+                  <c:v>118.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>134</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147.5</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>176</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>189.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>237</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>257</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>275</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>293</c:v>
+                  <c:v>282.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>311.5</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>331.5</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>350.5</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>371</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>415</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>441.5</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>461</c:v>
+                  <c:v>464.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>485</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>508</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81411695"/>
-        <c:axId val="54563994"/>
+        <c:axId val="89210795"/>
+        <c:axId val="53573206"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81411695"/>
+        <c:axId val="89210795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,11 +4641,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54563994"/>
+        <c:crossAx val="53573206"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54563994"/>
+        <c:axId val="53573206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4670,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81411695"/>
+        <c:crossAx val="89210795"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4778,10 +4705,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: Last element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4790,6 +4737,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -4806,189 +4764,667 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$1:$A$26</c:f>
+              <c:f>last!$A$33:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000000</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000000</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000000</c:v>
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$1:$B$26</c:f>
+              <c:f>last!$B$33:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>193.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>217.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>228.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="35">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>256.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>266.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>298.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>362.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>379.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="37">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>360.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>397</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>408.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>530</c:v>
+                <c:pt idx="46">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>503.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="33127399"/>
-        <c:axId val="84161315"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>last!$A$92:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>last!$B$92:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>464.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="16845801"/>
+        <c:axId val="90000961"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33127399"/>
+        <c:axId val="16845801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4999,11 +5435,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84161315"/>
+        <c:crossAx val="90000961"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84161315"/>
+        <c:axId val="90000961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,6 +5454,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5028,7 +5484,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33127399"/>
+        <c:crossAx val="16845801"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5068,15 +5524,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182160</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>251640</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5084,8 +5540,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5058720" y="0"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="5085720" y="0"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5098,15 +5554,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5114,8 +5570,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4943520" y="4829760"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="4970520" y="4820760"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5127,16 +5583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215640</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485640</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5144,8 +5600,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1841040" y="12947760"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="4484880" y="12048480"/>
+        <a:ext cx="9005400" cy="4829040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5158,15 +5614,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5174,8 +5630,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5003280" y="8664480"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="5030280" y="8655480"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5192,16 +5648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5209,8 +5665,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4923720" y="259200"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="8747280" y="355320"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5223,15 +5679,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
+      <xdr:colOff>807840</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>362880</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5239,8 +5695,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4844520" y="5776200"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="4871520" y="5767200"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5252,16 +5708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>811080</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
+      <xdr:colOff>419760</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5269,8 +5725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4874760" y="13368600"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="4901760" y="13359600"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5283,15 +5739,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>739800</xdr:colOff>
+      <xdr:colOff>766440</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5299,8 +5755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11445840" y="9524880"/>
-        <a:ext cx="6362640" cy="3661920"/>
+        <a:off x="11472840" y="9515880"/>
+        <a:ext cx="6362280" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5318,15 +5774,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:colOff>684000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5334,8 +5790,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538600" y="277560"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="5560560" y="267840"/>
+        <a:ext cx="7850520" cy="4475160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5348,15 +5804,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>622440</xdr:colOff>
+      <xdr:colOff>649440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>231480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5364,8 +5820,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5499000" y="7488000"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="5526000" y="7479000"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5378,15 +5834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>472320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5394,8 +5850,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4953960" y="15960240"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="4980960" y="15951240"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5408,15 +5864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
+      <xdr:colOff>429120</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5424,8 +5880,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11386440" y="11303640"/>
-        <a:ext cx="6084720" cy="3661920"/>
+        <a:off x="11413440" y="11294640"/>
+        <a:ext cx="6084360" cy="3661560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5445,8 +5901,8 @@
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S81" activeCellId="0" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6047,8 +6503,8 @@
   </sheetPr>
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6977,8 +7433,8 @@
   </sheetPr>
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S100" activeCellId="0" sqref="S100"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Laboratories/QuickSort/report/dataNgraphs.xlsx
+++ b/Laboratories/QuickSort/report/dataNgraphs.xlsx
@@ -85,11 +85,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -214,7 +216,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -409,11 +411,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81463140"/>
-        <c:axId val="21838283"/>
+        <c:axId val="18498506"/>
+        <c:axId val="89919456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81463140"/>
+        <c:axId val="18498506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,11 +431,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21838283"/>
+        <c:crossAx val="89919456"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21838283"/>
+        <c:axId val="89919456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +460,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81463140"/>
+        <c:crossAx val="18498506"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -493,7 +495,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -521,160 +523,340 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$30:$A$51</c:f>
+              <c:f>last!$A$33:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000000</c:v>
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$30:$B$51</c:f>
+              <c:f>last!$B$33:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>245.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>269</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>256.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>313.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>444.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>450.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>493.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>520</c:v>
+                <c:pt idx="41">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>360.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>503.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="20278916"/>
-        <c:axId val="28886553"/>
+        <c:axId val="4428806"/>
+        <c:axId val="59130769"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20278916"/>
+        <c:axId val="4428806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,11 +872,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28886553"/>
+        <c:crossAx val="59130769"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28886553"/>
+        <c:axId val="59130769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +901,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20278916"/>
+        <c:crossAx val="4428806"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -754,30 +936,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Pivot: Middle</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -786,17 +948,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>descending</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>descending</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -813,546 +964,279 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$56:$A$73</c:f>
+              <c:f>last!$A$92:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$56:$B$73</c:f>
+              <c:f>last!$B$92:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>33.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>296</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>328</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>354.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>379</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>404</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>451</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>479</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>514</c:v>
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>464.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mid!$A$30:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mid!$B$30:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>147.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>245.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>251.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>444.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>450.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>493.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>520</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ascending</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ascending</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mid!$A$1:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mid!$B$1:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>160.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>183.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>253.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>269.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>291.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>306.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>383.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>455.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>480.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="67705503"/>
-        <c:axId val="72676943"/>
+        <c:axId val="31169352"/>
+        <c:axId val="7998780"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67705503"/>
+        <c:axId val="31169352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>n</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1363,11 +1247,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72676943"/>
+        <c:crossAx val="7998780"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72676943"/>
+        <c:axId val="7998780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,26 +1266,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>t [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1412,7 +1276,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67705503"/>
+        <c:crossAx val="31169352"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1447,10 +1311,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: Last element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1459,6 +1343,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1475,141 +1370,667 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mid!$A$56:$A$73</c:f>
+              <c:f>last!$A$33:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mid!$B$56:$B$73</c:f>
+              <c:f>last!$B$33:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>33.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>266</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>296</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>328</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>354.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>256.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>328.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>360.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>379</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>514</c:v>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>503.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="30727835"/>
-        <c:axId val="96439644"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>last!$A$92:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>last!$B$92:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>464.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="31433605"/>
+        <c:axId val="57661315"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30727835"/>
+        <c:axId val="31433605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1620,11 +2041,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="96439644"/>
+        <c:crossAx val="57661315"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96439644"/>
+        <c:axId val="57661315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,6 +2060,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1649,7 +2090,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30727835"/>
+        <c:crossAx val="31433605"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1684,30 +2125,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Pivot: First element</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1716,17 +2137,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1743,10 +2153,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$1:$A$26</c:f>
+              <c:f>mid!$A$30:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1000000</c:v>
                 </c:pt>
@@ -1812,149 +2222,96 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>22000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$1:$B$26</c:f>
+              <c:f>mid!$B$30:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.5</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205.5</c:v>
+                  <c:v>251.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>247</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>275.5</c:v>
+                  <c:v>313.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>282</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>294.5</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>352.5</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>364</c:v>
+                  <c:v>444.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>385.5</c:v>
+                  <c:v>450.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>397.5</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>428</c:v>
+                  <c:v>493.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>527</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="30744217"/>
-        <c:axId val="81443223"/>
+        <c:axId val="44254915"/>
+        <c:axId val="31563303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30744217"/>
+        <c:axId val="44254915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>n</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1965,11 +2322,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81443223"/>
+        <c:crossAx val="31563303"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81443223"/>
+        <c:axId val="31563303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,26 +2341,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>time [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2014,7 +2351,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30744217"/>
+        <c:crossAx val="44254915"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2049,10 +2386,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: Middle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2061,6 +2418,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2077,267 +2445,546 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$33:$A$71</c:f>
+              <c:f>mid!$A$56:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$33:$B$71</c:f>
+              <c:f>mid!$B$56:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.5</c:v>
+                  <c:v>156.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.5</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.5</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.5</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.5</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>163.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>179.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>194.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>265.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>284.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>346.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>388.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>519</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="47619357"/>
-        <c:axId val="83203678"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mid!$A$30:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mid!$B$30:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>313.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>444.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>493.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mid!$A$1:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mid!$B$1:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>306.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>383.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>455.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="23075564"/>
+        <c:axId val="57464636"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47619357"/>
+        <c:axId val="23075564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2348,11 +2995,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83203678"/>
+        <c:crossAx val="57464636"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83203678"/>
+        <c:axId val="57464636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,6 +3014,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>t [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2377,7 +3044,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47619357"/>
+        <c:crossAx val="23075564"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2412,7 +3079,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2440,274 +3107,136 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$76:$A$116</c:f>
+              <c:f>mid!$A$56:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$76:$B$116</c:f>
+              <c:f>mid!$B$56:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>156.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>354.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>147.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>189.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>311.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>331.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>350.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>441.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>508</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="42827607"/>
-        <c:axId val="90233764"/>
+        <c:axId val="62451053"/>
+        <c:axId val="84068538"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42827607"/>
+        <c:axId val="62451053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,11 +3252,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90233764"/>
+        <c:crossAx val="84068538"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90233764"/>
+        <c:axId val="84068538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +3281,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42827607"/>
+        <c:crossAx val="62451053"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2787,7 +3316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2801,7 +3330,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Pivot: First element</a:t>
@@ -2821,11 +3350,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>descending</c:f>
+              <c:f>random</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>descending</c:v>
+                  <c:v>random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2846,555 +3375,184 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>first!$A$33:$A$71</c:f>
+              <c:f>first!$A$1:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
+                  <c:v>22000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000</c:v>
+                  <c:v>23000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000</c:v>
+                  <c:v>24000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
+                  <c:v>26000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>first!$B$33:$B$71</c:f>
+              <c:f>first!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.5</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>205.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.5</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.5</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67</c:v>
+                  <c:v>275.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.5</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88</c:v>
+                  <c:v>294.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.5</c:v>
+                  <c:v>352.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.5</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135</c:v>
+                  <c:v>397.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>163.5</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>179.5</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194.5</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>265.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>284.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>346.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>388.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>437.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>519</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ascending</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ascending</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>first!$A$76:$A$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>first!$B$76:$B$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>121.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>147.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>189.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>311.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>331.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>350.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>441.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>508</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="8142147"/>
-        <c:axId val="31266662"/>
+        <c:axId val="71754092"/>
+        <c:axId val="7667194"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8142147"/>
+        <c:axId val="71754092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,7 +3577,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>n</a:t>
@@ -3439,12 +3597,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31266662"/>
+        <c:crossAx val="7667194"/>
         <c:crossesAt val="0"/>
-        <c:majorUnit val="10000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31266662"/>
+        <c:axId val="7667194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3626,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>time [ms]</a:t>
@@ -3489,7 +3646,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8142147"/>
+        <c:crossAx val="71754092"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3524,30 +3681,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Pivot: Last element</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3556,17 +3693,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -3583,218 +3709,267 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$1:$A$26</c:f>
+              <c:f>first!$A$33:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000000</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000000</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000000</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000000</c:v>
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$1:$B$26</c:f>
+              <c:f>first!$B$33:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193.5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>217.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>228.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>256.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>266.5</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>288</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>298.5</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>362.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>379.5</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>397</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>408.5</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>431</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>447</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>467</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>473</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>491</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>530</c:v>
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>265.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>284.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65968971"/>
-        <c:axId val="79522556"/>
+        <c:axId val="71431064"/>
+        <c:axId val="64702451"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65968971"/>
+        <c:axId val="71431064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>n</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3805,11 +3980,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79522556"/>
+        <c:crossAx val="64702451"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79522556"/>
+        <c:axId val="64702451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,26 +3999,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>time [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3854,7 +4009,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="65968971"/>
+        <c:crossAx val="71431064"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3889,7 +4044,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3917,10 +4072,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$33:$A$84</c:f>
+              <c:f>first!$A$76:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -4043,214 +4198,148 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$33:$B$84</c:f>
+              <c:f>first!$B$76:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.5</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.5</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>108</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>116</c:v>
+                  <c:v>189.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>125.5</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>136.5</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>146.5</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>157.5</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>168.5</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>180</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191</c:v>
+                  <c:v>311.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>203</c:v>
+                  <c:v>331.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>215</c:v>
+                  <c:v>350.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>228.5</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>241.5</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>256.5</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>277.5</c:v>
+                  <c:v>441.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>282.5</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>299</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>328.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>360.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>503.5</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="51374819"/>
-        <c:axId val="90601787"/>
+        <c:axId val="34472939"/>
+        <c:axId val="57096729"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51374819"/>
+        <c:axId val="34472939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,11 +4355,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90601787"/>
+        <c:crossAx val="57096729"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90601787"/>
+        <c:axId val="57096729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4384,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51374819"/>
+        <c:crossAx val="34472939"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4330,10 +4419,30 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Pivot: First element</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4342,6 +4451,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>descending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>descending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -4358,7 +4478,288 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$92:$A$132</c:f>
+              <c:f>first!$A$33:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>first!$B$33:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>265.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>284.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ascending</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ascending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>first!$A$76:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4490,7 +4891,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$92:$B$132</c:f>
+              <c:f>first!$B$76:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4498,31 +4899,31 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>37</c:v>
@@ -4531,106 +4932,135 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.5</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.5</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118.5</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>131</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>144</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>171.5</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>185</c:v>
+                  <c:v>189.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>216.5</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>233</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>249</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>267</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>282.5</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>301</c:v>
+                  <c:v>311.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>322</c:v>
+                  <c:v>331.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>354</c:v>
+                  <c:v>350.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>375</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>396</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>427</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>440</c:v>
+                  <c:v>441.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>464.5</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>486</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>513</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89210795"/>
-        <c:axId val="53573206"/>
+        <c:axId val="56406173"/>
+        <c:axId val="55049967"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89210795"/>
+        <c:axId val="56406173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4641,11 +5071,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53573206"/>
+        <c:crossAx val="55049967"/>
         <c:crossesAt val="0"/>
+        <c:majorUnit val="10000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53573206"/>
+        <c:axId val="55049967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,6 +5091,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4670,7 +5121,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89210795"/>
+        <c:crossAx val="56406173"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4705,7 +5156,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4719,7 +5170,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Pivot: Last element</a:t>
@@ -4739,11 +5190,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ascending</c:f>
+              <c:f>random</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ascending</c:v>
+                  <c:v>random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4764,633 +5215,184 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>last!$A$33:$A$84</c:f>
+              <c:f>last!$A$1:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8000</c:v>
+                  <c:v>8000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11000</c:v>
+                  <c:v>11000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12000</c:v>
+                  <c:v>12000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13000</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14000</c:v>
+                  <c:v>14000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18000</c:v>
+                  <c:v>18000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19000</c:v>
+                  <c:v>19000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20000</c:v>
+                  <c:v>20000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22000</c:v>
+                  <c:v>22000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23000</c:v>
+                  <c:v>23000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24000</c:v>
+                  <c:v>24000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52000</c:v>
+                  <c:v>26000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>last!$B$33:$B$84</c:f>
+              <c:f>last!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>106.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.5</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.5</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>228.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.5</c:v>
+                  <c:v>266.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.5</c:v>
+                  <c:v>298.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>362.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>379.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74</c:v>
+                  <c:v>408.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.5</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>108</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>116</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>125.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>136.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>146.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>157.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>168.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>228.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>241.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>256.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>277.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>313.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>328.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>360.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>503.5</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>descending</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>descending</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>last!$A$92:$A$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>last!$B$92:$B$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>99.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>118.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>171.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>216.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>282.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>464.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>513</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="16845801"/>
-        <c:axId val="90000961"/>
+        <c:axId val="48595366"/>
+        <c:axId val="36396921"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16845801"/>
+        <c:axId val="48595366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5415,7 +5417,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>n</a:t>
@@ -5435,11 +5437,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90000961"/>
+        <c:crossAx val="36396921"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90000961"/>
+        <c:axId val="36396921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,7 +5466,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>time [ms]</a:t>
@@ -5484,7 +5486,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16845801"/>
+        <c:crossAx val="48595366"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5524,15 +5526,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5540,8 +5542,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5085720" y="0"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="5112720" y="0"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5554,15 +5556,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5570,8 +5572,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4970520" y="4820760"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="4997520" y="4811760"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5584,15 +5586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>448200</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>512280</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5600,8 +5602,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4484880" y="12048480"/>
-        <a:ext cx="9005400" cy="4829040"/>
+        <a:off x="4511880" y="12039480"/>
+        <a:ext cx="9005040" cy="4828680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5614,15 +5616,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>180720</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5630,8 +5632,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5030280" y="8655480"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="5057280" y="8646480"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5649,15 +5651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
+      <xdr:colOff>646560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5665,8 +5667,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8747280" y="355320"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="8774280" y="346320"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5678,16 +5680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5695,8 +5697,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4871520" y="5767200"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="4898520" y="5758200"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5709,15 +5711,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419760</xdr:colOff>
+      <xdr:colOff>446400</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5725,8 +5727,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4901760" y="13359600"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="4928760" y="13350600"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5739,15 +5741,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>766440</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5755,8 +5757,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11472840" y="9515880"/>
-        <a:ext cx="6362280" cy="3661560"/>
+        <a:off x="11499840" y="9506880"/>
+        <a:ext cx="6361920" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5774,15 +5776,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>684000</xdr:colOff>
+      <xdr:colOff>711000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>433080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5790,8 +5792,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5560560" y="267840"/>
-        <a:ext cx="7850520" cy="4475160"/>
+        <a:off x="5587560" y="258840"/>
+        <a:ext cx="7850160" cy="4474800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5804,15 +5806,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:colOff>676440</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>231480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5820,8 +5822,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5526000" y="7479000"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="5553000" y="7470000"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5834,15 +5836,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>498960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5850,8 +5852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4980960" y="15951240"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="5007960" y="15942240"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5864,15 +5866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>429120</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>455760</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5880,8 +5882,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11413440" y="11294640"/>
-        <a:ext cx="6084360" cy="3661560"/>
+        <a:off x="11440440" y="11285640"/>
+        <a:ext cx="6084000" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7433,8 +7435,8 @@
   </sheetPr>
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T30" activeCellId="0" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
